--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MasterThesis\thesis data template\BOM\Order150722\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD2A571-0DB8-48B2-B789-BE13B8A105E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE01A195-3526-4189-9D0B-D87E42786B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0618A86C-1C66-407F-989B-DFCF0FF94BD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0618A86C-1C66-407F-989B-DFCF0FF94BD7}"/>
   </bookViews>
   <sheets>
-    <sheet name="CompletePartList" sheetId="1" r:id="rId1"/>
+    <sheet name="PSM" sheetId="1" r:id="rId1"/>
+    <sheet name="MTM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
   <si>
     <t>Product Name</t>
   </si>
@@ -104,12 +105,6 @@
     <t>209-6615</t>
   </si>
   <si>
-    <t>Richco Spreiz Niet, Ø 8mm x 14mm, Schwarz, Nylon, 8mm, min. 3mm, max. 10mm</t>
-  </si>
-  <si>
-    <t>USR-1133</t>
-  </si>
-  <si>
     <t>RS PRO Blind Niet, Ø 7.1mm x 12mm, Grau, Stahl, M5, 7.2mm, min. 0.5mm, max. 2.5mm</t>
   </si>
   <si>
@@ -137,18 +132,9 @@
     <t>ALBERTS by EXPERT-Security</t>
   </si>
   <si>
-    <t>Loctite 406 Sekundenkleber transparent, Flasche 20 g</t>
-  </si>
-  <si>
-    <t>Loctite 406 20g</t>
-  </si>
-  <si>
     <t>10294 Sicherungsringe-Sortiment Inhalt 240 Teile</t>
   </si>
   <si>
-    <t>HENKA Werkzeuge</t>
-  </si>
-  <si>
     <t>Buy</t>
   </si>
   <si>
@@ -161,24 +147,6 @@
     <t>TOOLCRAFT 1060910 Sicherungsringe Innen-Durchmesser: 27.9 mm DIN 471 Edelstahl 25 St.</t>
   </si>
   <si>
-    <t>simturn E3 Wendeschneidplatte, Gewinde, Außen, Metr. ISO, Teilprofil, Mehrbereich, Webcode: AECT</t>
-  </si>
-  <si>
-    <t>SIM-TE3.MT10.01EMRX600</t>
-  </si>
-  <si>
-    <t>simturn E3 Wendeschneidplatte, Stechdrehen, Sicherungsringnuten, Webcode: AGBW</t>
-  </si>
-  <si>
-    <t>SIM-TE3.0090.00GRHT45</t>
-  </si>
-  <si>
-    <t>simturn E3 Klemmhalter, Stahl, Außenbearbeitung, Webcode: AB6B</t>
-  </si>
-  <si>
-    <t>SIM-TE3.1616.00R</t>
-  </si>
-  <si>
     <t>RS PRO Sicherungsmuttern, Stahl Glatt, M40 9mm</t>
   </si>
   <si>
@@ -213,6 +181,102 @@
   </si>
   <si>
     <t>DC-Motor - RE35 GB 90W KL 2WE</t>
+  </si>
+  <si>
+    <t>Motor driver Cytron MD13S</t>
+  </si>
+  <si>
+    <t>Materialkosten</t>
+  </si>
+  <si>
+    <t>UCP204</t>
+  </si>
+  <si>
+    <t>Stehlagereinheit UCP204</t>
+  </si>
+  <si>
+    <t>AEAT-6012-A06</t>
+  </si>
+  <si>
+    <t>DEBO SENS 3AXIS</t>
+  </si>
+  <si>
+    <t>Entwicklerboards - Beschleunigung &amp; Gyroskop, 3-Achsen, MPU-6050</t>
+  </si>
+  <si>
+    <t>Teensy 4.1, mit Ethernet, ohne Header</t>
+  </si>
+  <si>
+    <t>DEV-16771</t>
+  </si>
+  <si>
+    <t>Broadcom Servo-Potenziometer Absolutgeber, mit 6 mm, Glattschaft, Schaft L. 8.5mm</t>
+  </si>
+  <si>
+    <t>761-3319</t>
+  </si>
+  <si>
+    <t>ITEM Profile_8 40x40 L=1m</t>
+  </si>
+  <si>
+    <t>Reichelt Elektronik</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 6700 / 61700 2RS 10x15x4 mm</t>
+  </si>
+  <si>
+    <t>6700-2RS</t>
+  </si>
+  <si>
+    <t>Kegelrollenlager 32005 X 25x47x15 mm</t>
+  </si>
+  <si>
+    <t>32005-X</t>
+  </si>
+  <si>
+    <t>ITEM Profile_8 40x40 L=2m</t>
+  </si>
+  <si>
+    <t>T-Slot Nut 8 St M6</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 6800 / 61800 2RS 10x19x5 mm</t>
+  </si>
+  <si>
+    <t>6800-2RS</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 6900 / 61900 2RS 10x22x6 mm</t>
+  </si>
+  <si>
+    <t>6900-2RS</t>
+  </si>
+  <si>
+    <t>Miniatur Kugellager 628 2RS 8x24x8 mm</t>
+  </si>
+  <si>
+    <t>628-2RS</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>HEDS-5540#A11</t>
+  </si>
+  <si>
+    <t>Optical Encoder HEDS-5540#A11</t>
+  </si>
+  <si>
+    <t>Modellbau Lindinger GmbH </t>
+  </si>
+  <si>
+    <t>HITEC HS-65HB (6V/2KG/0,11s) Analog Mini Servo</t>
+  </si>
+  <si>
+    <t>Amewi Standard-Servo HV7346MG Digital-Servo</t>
   </si>
 </sst>
 </file>
@@ -224,7 +288,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,12 +350,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -346,7 +414,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -369,19 +437,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -412,15 +468,6 @@
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -433,18 +480,9 @@
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -457,14 +495,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -782,62 +838,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DC4F39-8EB4-415C-BF95-C8B96BE58B8A}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="93" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="95.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="29" style="6" customWidth="1"/>
     <col min="6" max="7" width="17.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -858,10 +914,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -870,22 +926,22 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7">
         <v>12.99</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G5" si="0">IF(A4="x",C4*F4,0)</f>
+        <f>IF(A4="x",C4*F4,0)</f>
         <v>12.99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -900,49 +956,51 @@
         <v>47.99</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f>IF(A5="x",C5*F5,0)</f>
         <v>47.99</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
+        <v>28968</v>
+      </c>
+      <c r="F6" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="G6" s="7">
+        <f>IF(A6="x",C6*F6,0)</f>
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1.99</v>
-      </c>
-      <c r="G7" s="7">
-        <f>IF(A7="x",C7*F7,0)</f>
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -951,71 +1009,142 @@
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.99</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ref="G8:G15" si="0">IF(A8="x",C8*F8,0)</f>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>2.17</v>
       </c>
-      <c r="G8" s="7">
-        <f t="shared" ref="G8:G28" si="1">IF(A8="x",C8*F8,0)</f>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
         <v>21.7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7">
+        <v>34.31</v>
+      </c>
       <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
+        <f t="shared" si="0"/>
+        <v>137.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.89</v>
+      </c>
       <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="10"/>
+        <f t="shared" si="0"/>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.06</v>
+      </c>
       <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>10.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -1024,551 +1153,1030 @@
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="32">
+        <v>2</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="30">
+        <v>7</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F17" s="7">
         <v>3.31</v>
       </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
+      <c r="G17" s="7">
+        <f t="shared" ref="G17:G23" si="1">IF(A17="x",C17*F17,0)</f>
         <v>33.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F18" s="7">
         <v>15.71</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G18" s="7">
         <f t="shared" si="1"/>
         <v>15.71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F19" s="7">
         <v>43.83</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G19" s="7">
         <f t="shared" si="1"/>
         <v>43.83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7">
-        <v>25.47</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>25.47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="7">
-        <v>25.75</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="7">
         <v>6.73</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G20" s="7">
         <f t="shared" si="1"/>
         <v>13.46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="7">
         <v>7.13</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <f t="shared" si="1"/>
         <v>7.13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="7">
         <v>45.52</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="7">
         <f t="shared" si="1"/>
         <v>45.52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E23" s="5">
-        <v>273752</v>
-      </c>
-      <c r="F23">
-        <v>286.25</v>
+        <v>4016212</v>
+      </c>
+      <c r="F23" s="7">
+        <v>22.82</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="1"/>
+        <v>45.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5">
+        <v>273752</v>
+      </c>
+      <c r="F25">
+        <v>286.25</v>
+      </c>
+      <c r="G25" s="7">
+        <f>IF(A25="x",C25*F25,0)</f>
         <v>572.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1.98</v>
+      <c r="E27" s="5">
+        <v>112065</v>
+      </c>
+      <c r="F27">
+        <v>24.99</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="1"/>
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="5">
-        <v>10013525</v>
-      </c>
-      <c r="F28" s="7">
-        <v>2.02</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="1"/>
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="39"/>
-      <c r="B29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(A27="x",C27*F27,0)</f>
+        <v>99.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5">
+        <v>108070021</v>
+      </c>
+      <c r="F29" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="G29" s="7">
+        <f>IF(A29="x",C29*F29,0)</f>
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5</v>
-      </c>
-      <c r="D30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F30" s="7">
-        <v>12.25</v>
+        <v>38</v>
       </c>
       <c r="G30" s="7">
         <f>IF(A30="x",C30*F30,0)</f>
-        <v>61.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="7">
+        <v>52.93</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" ref="G31:G38" si="2">IF(A31="x",C31*F31,0)</f>
+        <v>158.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="12">
         <v>1</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="7">
-        <v>67.91</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" ref="G31:G39" si="2">IF(A31="x",C31*F31,0)</f>
-        <v>67.91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="7">
-        <v>18.75</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="10">
+        <v>20930000201008</v>
+      </c>
+      <c r="F33" s="11">
+        <v>24</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="2"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12">
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="14">
-        <v>20930000201008</v>
-      </c>
-      <c r="F34" s="15">
-        <v>24</v>
+      <c r="E34" s="10">
+        <v>1370029120000</v>
+      </c>
+      <c r="F34" s="11">
+        <v>15</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="16">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C35" s="12">
+        <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1370029120000</v>
-      </c>
-      <c r="F35" s="15">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="11">
+        <v>5.28</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>39</v>
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="16">
-        <v>4</v>
+      <c r="C36" s="12">
+        <v>10</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="15">
-        <v>5.28</v>
+        <v>41</v>
+      </c>
+      <c r="F36" s="11">
+        <v>2.23</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>21.12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
-        <v>39</v>
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="12">
         <v>10</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="15">
-        <v>2.23</v>
+        <v>42</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2.39</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
-        <v>39</v>
+        <v>23.900000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="12">
         <v>10</v>
       </c>
-      <c r="C38" s="16">
-        <v>10</v>
-      </c>
       <c r="D38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="15">
-        <v>2.39</v>
+        <v>44</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.46</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>23.900000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="16">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0.46</v>
-      </c>
-      <c r="G39" s="7">
-        <f t="shared" si="2"/>
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="C40" s="16"/>
-      <c r="E40"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F41" s="34" t="s">
+    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="7">
+        <v>30</v>
+      </c>
+      <c r="G40" s="7">
+        <f>IF(A40="x",C40*F40,0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="4"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G42" s="25">
         <f>SUM(G3:G40)</f>
-        <v>1268.6199999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>1631.9599999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44F1263-0E80-4C38-B69E-7274366F4757}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="87.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="G3" s="7">
+        <f>IF(A3="x",C3*F3,0)</f>
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10013525</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.02</v>
+      </c>
+      <c r="G4" s="7">
+        <f>IF(A4="x",C4*F4,0)</f>
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>35.53</v>
+      </c>
+      <c r="G6">
+        <f>C6*F6</f>
+        <v>213.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>34.31</v>
+      </c>
+      <c r="G7">
+        <f>C7*F7</f>
+        <v>34.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>6.55</v>
+      </c>
+      <c r="G9">
+        <f>C9*F9</f>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>37.99</v>
+      </c>
+      <c r="G10">
+        <f>C10*F10</f>
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>1.02</v>
+      </c>
+      <c r="G12">
+        <f>C12*F12</f>
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>4.03</v>
+      </c>
+      <c r="G13">
+        <f>C13*F13</f>
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" ref="G14" si="0">IF(A14="x",C14*F14,0)</f>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="37">
+        <f>SUM(G4:G15)</f>
+        <v>336.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="4"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>